--- a/biology/Médecine/Giovanni_Francesco_Zulatti/Giovanni_Francesco_Zulatti.xlsx
+++ b/biology/Médecine/Giovanni_Francesco_Zulatti/Giovanni_Francesco_Zulatti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Francesco Zulatti (né en 1762 à Lixouri, sur l’île grecque de Céphalonie, dans les Îles Ioniennes et mort au mois de décembre 1805) est un médecin italien de la fin du XVIIIe et du début du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'Angelo Zulatti, Giovanni Francesco Zulatti, parcourut, comme son père, la carrière médicale avec distinction. Il fit plusieurs voyages, notamment en Grèce, et, en 1796, fut nommé gouverneur de l'île d'Ithaque, poste qu'il remplit jusqu'à l'annexion des îles Ioniennes par les Français, qui le nommèrent médecin en chef de l'hôpital militaire de Corfou. 
 Ces dernières fonctions lui furent au surplus conservées par les Russes, et même Zulatti eut part à la nouvelle organisation de la République des Sept-Îles sous le protectorat de la Russie, en 1803. L'empereur Alexandre le nomma conseiller de cour.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On doit à Giovanni Francesco Zulatti quelques écrits :
 Della forza della Musica nelle passioni, nei costumi e dell’ uso medico del ballo (Venise, 1787) (OCLC 76788046)
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Giovanni Francesco Zulatti », dans Louis-Gabriel Michaud, Biographie universelle ancienne et moderne : histoire par ordre alphabétique de la vie publique et privée de tous les hommes avec la collaboration de plus de 300 savants et littérateurs français ou étrangers, 2e édition, 1843-1865 [détail de l’édition]
  Portail de la médecine   Portail du XVIIIe siècle   Portail de l’Italie                   </t>
